--- a/assets/files/Commercial.xlsx
+++ b/assets/files/Commercial.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Documents\Scheduling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zeel-my.sharepoint.com/personal/vc_sulesh_shukla_zee_com/Documents/Desktop/Bulk Upload/Bulk Import File Format/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{D870BF04-75C2-42D2-AFDF-F7681A46A9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52B7088B-D4BA-4B93-982E-F988F36D6A66}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6435"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A45573F7-316E-4A8C-80E1-96A5CB6FFBC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Commercial" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="EUROPE">Master!$J$3</definedName>
     <definedName name="INDIA">Master!$G$3:$G$11</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="207">
   <si>
     <t>CAPTION</t>
   </si>
@@ -649,34 +650,28 @@
     <t>ROA</t>
   </si>
   <si>
-    <t>LUX Test</t>
-  </si>
-  <si>
-    <t>Ebus</t>
-  </si>
-  <si>
-    <t>LUX</t>
-  </si>
-  <si>
     <t>Kurkure</t>
   </si>
   <si>
-    <t>Adstream</t>
-  </si>
-  <si>
-    <t>Test3</t>
-  </si>
-  <si>
-    <t>ClearEdge</t>
-  </si>
-  <si>
-    <t>test3</t>
+    <t>GroupM</t>
+  </si>
+  <si>
+    <t>Sunsilk</t>
+  </si>
+  <si>
+    <t>07Dec2023 200</t>
+  </si>
+  <si>
+    <t>07Dec2023 201</t>
+  </si>
+  <si>
+    <t>07Dec2023 202</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -959,6 +954,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1257,12 +1256,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5483C1E-925A-4FCE-A11B-2C321D32C61A}">
   <dimension ref="A1:AM151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1363,17 +1362,17 @@
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B2" s="12" t="str">
         <f t="shared" ref="B2:B65" si="0">IF(ISBLANK(A2),"",A2)</f>
-        <v>LUX Test</v>
+        <v>07Dec2023 200</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E2" s="9" t="str">
         <f>IF(ISBLANK(D2),"","NA")</f>
@@ -1413,17 +1412,17 @@
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B3" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Kurkure</v>
+        <v>07Dec2023 201</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E3" s="9" t="str">
         <f t="shared" ref="E3:E66" si="1">IF(ISBLANK(D3),"","NA")</f>
@@ -1446,16 +1445,16 @@
         <v>45251</v>
       </c>
       <c r="K3" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
@@ -1467,13 +1466,13 @@
       </c>
       <c r="B4" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Test3</v>
+        <v>07Dec2023 202</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E4" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1496,16 +1495,16 @@
         <v>45220</v>
       </c>
       <c r="K4" s="21" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L4" s="21" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
@@ -5623,14 +5622,14 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="custom" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please check, duration should be round up with 5. Shouldn't be 0 or negative. Give values in sec only." sqref="I2:I150">
+    <dataValidation type="custom" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please check, duration should be round up with 5. Shouldn't be 0 or negative. Give values in sec only." sqref="I2:I150" xr:uid="{329C90D6-8219-47DC-B2EF-8DE019767D2D}">
       <formula1>IF(I2&gt;0,MOD(I2,5)=0,"")</formula1>
     </dataValidation>
-    <dataValidation operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please check, duration should be round up with 5. Shouldn't be 0 or negative. Give values in sec only." sqref="J3:J150"/>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please check, duration should be round up with 5. Shouldn't be 0 or negative. Give values in sec only." sqref="J2">
+    <dataValidation operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please check, duration should be round up with 5. Shouldn't be 0 or negative. Give values in sec only." sqref="J3:J150" xr:uid="{AE6AD625-CE22-4932-B6A1-BCA7DCAD444C}"/>
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please check, duration should be round up with 5. Shouldn't be 0 or negative. Give values in sec only." sqref="J2" xr:uid="{CF54D144-8B08-4D2A-A569-46ED5B603C3A}">
       <formula1>TODAY()-7</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please check, duration should be round up with 5. Shouldn't be 0 or negative. Give values in sec only." sqref="L2:L150">
+    <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please check, duration should be round up with 5. Shouldn't be 0 or negative. Give values in sec only." sqref="L2:L150" xr:uid="{CFCBC725-1954-49A5-B8C0-486BF94C6906}">
       <formula1>INDIRECT(K2)</formula1>
     </dataValidation>
   </dataValidations>
@@ -5638,31 +5637,31 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C53D4BC7-59A3-4A2E-95FC-D54D7AC9B5DE}">
           <x14:formula1>
             <xm:f>Master!$E$3:$E$19</xm:f>
           </x14:formula1>
           <xm:sqref>H2:H150</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FD5C0DDF-0E03-475E-85C8-116A75B4A964}">
           <x14:formula1>
             <xm:f>Master!$B$3:$B$15</xm:f>
           </x14:formula1>
           <xm:sqref>D2:D150</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F83E64AB-8F7B-4F15-BE8D-F1129C863646}">
           <x14:formula1>
             <xm:f>Master!$D$3:$D$4</xm:f>
           </x14:formula1>
           <xm:sqref>G2:G150</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please check, duration should be round up with 5. Shouldn't be 0 or negative. Give values in sec only.">
+        <x14:dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please check, duration should be round up with 5. Shouldn't be 0 or negative. Give values in sec only." xr:uid="{A7C65BA3-2EB0-4A4E-BC59-BB7DFF4CC7E5}">
           <x14:formula1>
             <xm:f>Master!$F$3:$F$7</xm:f>
           </x14:formula1>
           <xm:sqref>K2:K150</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7D31926D-AD77-401D-87D7-5F8E036CE4C9}">
           <x14:formula1>
             <xm:f>Master!$A$3:$A$34</xm:f>
           </x14:formula1>
@@ -5675,7 +5674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA87BFDA-35B7-49D6-96B9-66D97E55F5A5}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5772,11 +5771,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D039BB1D-71C7-4E3B-982F-4D627D340181}">
   <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
